--- a/biology/Médecine/Canule_de_Guedel/Canule_de_Guedel.xlsx
+++ b/biology/Médecine/Canule_de_Guedel/Canule_de_Guedel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La canule de Guedel est un dispositif médical inventé par Arthur Guedel, et qui permet de préserver le passage de l'air jusqu'aux poumons chez un humain inconscient.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une canule de Guedel appelée aussi canule oropharyngée est un tube semi-rigide en plastique, en forme de point d'interrogation utilisé pour maintenir les voies aériennes d'un patient ouvertes (empêche l'affaissement de la langue contre le pharynx).
 Mise en place, elle n'élimine pas la nécessité de mettre le patient en position latérale de sécurité (PLS) : si elle empêche l'affaissement de la langue, elle n'empêche pas la fermeture de l'épiglotte ni le syndrome de Mendelson.
